--- a/data/trans_orig/P34B02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34B02-Habitat-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1820889182700972</v>
+        <v>0.1810593316552256</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.222852614930917</v>
+        <v>0.2282554798211034</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5288032038966386</v>
+        <v>0.5389308479315332</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1066760815675946</v>
+        <v>0.1068559795935038</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1443434487502766</v>
+        <v>0.1435775981841763</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5047787517708835</v>
+        <v>0.5055997341820104</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1583629446642186</v>
+        <v>0.1564162919232158</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1963226823476154</v>
+        <v>0.2042217294363857</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5604538112975767</v>
+        <v>0.5633625247742994</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3467087298090907</v>
+        <v>0.3438333076119394</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4060959248307725</v>
+        <v>0.4048672504438024</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8381722358025095</v>
+        <v>0.8113596586008361</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2234157359862098</v>
+        <v>0.2234440943677015</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2834078742306653</v>
+        <v>0.2855677755732567</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7056768303219193</v>
+        <v>0.7112423264526599</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2560503701526114</v>
+        <v>0.2515370050256711</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3081783469279533</v>
+        <v>0.3069245570851858</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7433793372473394</v>
+        <v>0.7370071669515583</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.4701554694501157</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9492049878985035</v>
+        <v>0.9492049878985033</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.2066069342023766</v>
@@ -760,7 +760,7 @@
         <v>0.3432348660768965</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.7233719091036621</v>
+        <v>0.7233719091036622</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.248821025723931</v>
@@ -769,7 +769,7 @@
         <v>0.4060658321424476</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.8350308434897625</v>
+        <v>0.8350308434897626</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2218297885923009</v>
+        <v>0.2295800247628517</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3927124947556563</v>
+        <v>0.384567266422594</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8174568779683011</v>
+        <v>0.831744322701736</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1535043198143822</v>
+        <v>0.1512810318458719</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2773101586710143</v>
+        <v>0.2792467141131877</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6415684971387603</v>
+        <v>0.6284942725125309</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2061404717258492</v>
+        <v>0.206225250129628</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.346592648469036</v>
+        <v>0.3510739967398718</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.7632109202849555</v>
+        <v>0.7596500787276524</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3619826035993075</v>
+        <v>0.3651059112131816</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5828058022793681</v>
+        <v>0.5648780044679823</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.106116094341848</v>
+        <v>1.109694947926016</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2790115891728064</v>
+        <v>0.28627619458328</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4300109163096028</v>
+        <v>0.424792174852235</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8326392751737067</v>
+        <v>0.8226646331729711</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.294830650794937</v>
+        <v>0.2981867603266291</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4691799306050691</v>
+        <v>0.4669993864124539</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9285770980691799</v>
+        <v>0.9286322681973798</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.3599707516031786</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.957403271056134</v>
+        <v>0.9574032710561339</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.2052205331777713</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.260510590276135</v>
+        <v>0.2534959947078591</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2857949661316651</v>
+        <v>0.2902267713484518</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8242766350635644</v>
+        <v>0.8260852701901166</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1538623552422197</v>
+        <v>0.148660081641906</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2051128934654691</v>
+        <v>0.2042162981919999</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5131696530031145</v>
+        <v>0.5125877228663783</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2152730092659322</v>
+        <v>0.2231264397248053</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2646548944587407</v>
+        <v>0.2604354737679712</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6954343103821818</v>
+        <v>0.6966104227770178</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4267741489240268</v>
+        <v>0.4285263027024696</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4646978695715892</v>
+        <v>0.4536568156462209</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.117278262796801</v>
+        <v>1.12180853901461</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.281881894100105</v>
+        <v>0.2797665292149604</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3487012577204128</v>
+        <v>0.3388765878639128</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.698607354424022</v>
+        <v>0.704530033479378</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3259311842960095</v>
+        <v>0.3241087654439502</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3701755614870888</v>
+        <v>0.365599049905303</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8738012542473018</v>
+        <v>0.8727502830062143</v>
       </c>
     </row>
     <row r="13">
@@ -969,7 +969,7 @@
         <v>0.5128404026185401</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1.138766096719568</v>
+        <v>1.138766096719567</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.2793131409083307</v>
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3071309216090271</v>
+        <v>0.30685074457653</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4193633240370761</v>
+        <v>0.4235758293991935</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9970299094876387</v>
+        <v>1.009773305586828</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2164098040825753</v>
+        <v>0.2138253012459052</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2715889932304335</v>
+        <v>0.2792814127359448</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7029877087069607</v>
+        <v>0.7050772940438536</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2789156297352965</v>
+        <v>0.2764458648608596</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3657873782222789</v>
+        <v>0.3688461764746784</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.87831211661203</v>
+        <v>0.8728517787138447</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4854711170545659</v>
+        <v>0.4826522362569931</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6237341453513902</v>
+        <v>0.6202557698682031</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.292842573320956</v>
+        <v>1.301016896372836</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3589444034783423</v>
+        <v>0.3655785638057457</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4287437203450075</v>
+        <v>0.428867932155481</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8833659135420814</v>
+        <v>0.8745547607255704</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3950584545868074</v>
+        <v>0.3944433598559371</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4891259921697953</v>
+        <v>0.4963792602880723</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>1.046087964426437</v>
+        <v>1.040130526312477</v>
       </c>
     </row>
     <row r="16">
@@ -1078,7 +1078,7 @@
         <v>0.423938737589067</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9501782287602669</v>
+        <v>0.950178228760267</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.2175815007192729</v>
@@ -1096,7 +1096,7 @@
         <v>0.3603207250359294</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.8183217700488281</v>
+        <v>0.8183217700488279</v>
       </c>
     </row>
     <row r="17">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2778721968809071</v>
+        <v>0.2770400019328729</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3794564016282427</v>
+        <v>0.376538852328421</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.876467589591779</v>
+        <v>0.874522756766363</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1859567487393572</v>
+        <v>0.1888586185857877</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2630156323023208</v>
+        <v>0.2619253919452068</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6456999563393631</v>
+        <v>0.6494744083712859</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2410394949020064</v>
+        <v>0.2422151974274276</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3340829979843205</v>
+        <v>0.3295091142186534</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.7812330471202289</v>
+        <v>0.7761340014378343</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3626461236477625</v>
+        <v>0.365132646328982</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.471102774821863</v>
+        <v>0.4720468236037105</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.022196252888627</v>
+        <v>1.023675612908565</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2539525227422185</v>
+        <v>0.2563126409218388</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3349020796942643</v>
+        <v>0.3370257732317765</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7409516570413082</v>
+        <v>0.7457584663968827</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2944729536330025</v>
+        <v>0.2942201250669355</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3887568179258006</v>
+        <v>0.3909516456277641</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.8616182989460447</v>
+        <v>0.8600832687569681</v>
       </c>
     </row>
     <row r="19">
